--- a/PhoneBook/PhoneBook.xlsx
+++ b/PhoneBook/PhoneBook.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,29 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0C0C0"/>
+        <bgColor rgb="00C0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +55,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,73 +451,90 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Имя</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Номер телефона</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Описание</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Иванов Иван</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>7856941230</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Коллега</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Петров Петр</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>9874563210</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Сосед</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Николаев Николай</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>0123654789</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Коллега</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Серов Иван</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>9874521036</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Коллега</t>
         </is>
